--- a/resources/dap_3.xlsx
+++ b/resources/dap_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R-tools\dap_generating\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E7A56D-B8EB-41F1-9B9A-C225646EEA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2276C2-B06D-4849-BAF0-7D6986079107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4E5A3F36-B64A-40E0-81FA-54C56E0A43D1}"/>
   </bookViews>
@@ -1025,9 +1025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1CCBBBE-FCDD-4C9B-BB03-71D4E14738B6}">
   <dimension ref="A1:U999"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomLeft" activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1290,7 +1290,7 @@
       <c r="P5" s="15"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="16" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(OR(B5="new",B5="yes",B5="no"),E5="select_multiple"),IF(ISNUMBER(SEARCH("None",K5)),"not(selected(., 'none') and (count-selected(.)&gt;1))",""),"")</f>
         <v/>
       </c>
       <c r="S5" s="15"/>
